--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/PycharmProjects/Yandex-specialization-ML/autorun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57C092-66C7-514C-9298-D013B8295506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA7582-2EC6-4233-B3C4-B56248B80A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2260" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Version name</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>trainable</t>
+  </si>
+  <si>
+    <t>thirdModel</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>secondModel</t>
+  </si>
+  <si>
+    <t>Third</t>
   </si>
 </sst>
 </file>
@@ -396,20 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -434,6 +446,34 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA7582-2EC6-4233-B3C4-B56248B80A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A970D3A-24CC-4BA4-B7D3-117A3D04FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,38 +34,45 @@
     <t>Status</t>
   </si>
   <si>
+    <t>First</t>
+  </si>
+  <si>
     <t>first without augmentation</t>
   </si>
   <si>
     <t>firstModel</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>trainable</t>
   </si>
   <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>secondModel</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
     <t>thirdModel</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>secondModel</t>
-  </si>
-  <si>
-    <t>Third</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -92,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -421,7 +429,7 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,45 +443,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/PycharmProjects/Yandex-specialization-ML/autorun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A970D3A-24CC-4BA4-B7D3-117A3D04FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8E9D8-7036-2F4A-A940-1193AFF004A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Version name</t>
   </si>
@@ -43,19 +43,22 @@
     <t>firstModel</t>
   </si>
   <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>secondModel</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>thirdModel</t>
+  </si>
+  <si>
     <t>trainable</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>secondModel</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>thirdModel</t>
   </si>
 </sst>
 </file>
@@ -419,17 +422,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -458,7 +461,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -472,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -483,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,90 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/PycharmProjects/Yandex-specialization-ML/autorun/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8E9D8-7036-2F4A-A940-1193AFF004A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Version name</t>
-  </si>
-  <si>
-    <t>Data loader name</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>first without augmentation</t>
-  </si>
-  <si>
-    <t>firstModel</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>secondModel</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>thirdModel</t>
-  </si>
-  <si>
-    <t>trainable</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,79 +428,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col width="12.83203125" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="13.1640625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Version name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Data loader name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Model name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>First</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>first without augmentation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>firstModel</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>first without augmentation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>secondModel</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>first without augmentation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>thirdModel</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,41 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC1096-D548-4524-8DD6-2C85626B475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20610" yWindow="2205" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t>Version name</t>
+  </si>
+  <si>
+    <t>Data loader name</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>first without augmentation</t>
+  </si>
+  <si>
+    <t>firstModel</t>
+  </si>
+  <si>
+    <t>trainable</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>secondModel</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>thirdModel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +100,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,115 +415,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.83203125" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="13.1640625" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Version name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Data loader name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>First</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>firstModel</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Second</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>secondModel</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Third</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>thirdModel</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -433,17 +433,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col width="12.83203125" customWidth="1" min="1" max="1"/>
+    <col width="12.8125" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="13.1640625" customWidth="1" min="3" max="3"/>
+    <col width="13.1875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,6 +530,50 @@
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fourth</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>first without augmentation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fourthModel</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fifth</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>first without augmentation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fifthModel</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>done</t>
         </is>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC1096-D548-4524-8DD6-2C85626B475F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCFF43-A55B-4DFA-9E66-1BA85F2ED9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2205" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Version name</t>
   </si>
@@ -56,13 +56,49 @@
   </si>
   <si>
     <t>thirdModel</t>
+  </si>
+  <si>
+    <t>First2</t>
+  </si>
+  <si>
+    <t>firstModel2</t>
+  </si>
+  <si>
+    <t>firstModel3</t>
+  </si>
+  <si>
+    <t>First3</t>
+  </si>
+  <si>
+    <t>Second2</t>
+  </si>
+  <si>
+    <t>secondModel2</t>
+  </si>
+  <si>
+    <t>Second3</t>
+  </si>
+  <si>
+    <t>secondModel3</t>
+  </si>
+  <si>
+    <t>Third2</t>
+  </si>
+  <si>
+    <t>thirdModel2</t>
+  </si>
+  <si>
+    <t>Third3</t>
+  </si>
+  <si>
+    <t>thirdModel3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +109,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -416,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -459,13 +502,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -476,19 +519,104 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\PycharmProjects\Yandex-specialization-ML\autorun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCFF43-A55B-4DFA-9E66-1BA85F2ED9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B34CF5F-C060-4CBE-BA5F-1D59DB8CFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2205" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,43 +43,43 @@
     <t>firstModel</t>
   </si>
   <si>
+    <t>First2</t>
+  </si>
+  <si>
+    <t>firstModel2</t>
+  </si>
+  <si>
     <t>trainable</t>
   </si>
   <si>
+    <t>First3</t>
+  </si>
+  <si>
+    <t>firstModel3</t>
+  </si>
+  <si>
     <t>Second</t>
   </si>
   <si>
     <t>secondModel</t>
   </si>
   <si>
+    <t>Second2</t>
+  </si>
+  <si>
+    <t>secondModel2</t>
+  </si>
+  <si>
+    <t>Second3</t>
+  </si>
+  <si>
+    <t>secondModel3</t>
+  </si>
+  <si>
     <t>Third</t>
   </si>
   <si>
     <t>thirdModel</t>
-  </si>
-  <si>
-    <t>First2</t>
-  </si>
-  <si>
-    <t>firstModel2</t>
-  </si>
-  <si>
-    <t>firstModel3</t>
-  </si>
-  <si>
-    <t>First3</t>
-  </si>
-  <si>
-    <t>Second2</t>
-  </si>
-  <si>
-    <t>secondModel2</t>
-  </si>
-  <si>
-    <t>Second3</t>
-  </si>
-  <si>
-    <t>secondModel3</t>
   </si>
   <si>
     <t>Third2</t>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,13 +109,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -462,7 +455,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -497,94 +490,94 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,7 +591,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,11 +605,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/autorun/ModelsLearning.xlsx
+++ b/autorun/ModelsLearning.xlsx
@@ -1,41 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41021A-11B2-4DE5-BE4A-A4FE973818B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>Version name</t>
+  </si>
+  <si>
+    <t>Data loader name</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>first without augmentation</t>
+  </si>
+  <si>
+    <t>firstModel</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>secondModel</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>thirdModel</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>fourthModel</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>fifthModel</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>sixthModel</t>
+  </si>
+  <si>
+    <t>trainable</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +121,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,159 +436,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.8125" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="13.1875" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Version name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Data loader name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>First</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>firstModel</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Second</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>secondModel</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Third</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>thirdModel</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fourth</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fourthModel</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fifth</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first without augmentation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>fifthModel</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>